--- a/trades.xlsx
+++ b/trades.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>timestamp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>team_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>team_trade_partner</t>
+          <t>trade_partner_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -385,17 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>players_traded_away_pos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>players_traded_for</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>players_traded_for_pos</t>
         </is>
       </c>
     </row>
@@ -408,15 +398,11 @@
           <t>09/15/20</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -425,17 +411,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>QB, Pick</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Carson Wentz, 2021 round 2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>QB, Pick</t>
+          <t>Kyler Murray, 2022 round 3</t>
         </is>
       </c>
     </row>
@@ -448,15 +424,11 @@
           <t>09/15/20</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -465,17 +437,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>QB, Pick</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Kyler Murray, 2022 round 3</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>QB, Pick</t>
+          <t>Carson Wentz, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -488,15 +450,11 @@
           <t>09/24/20</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -505,17 +463,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DeSean Jackson</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>2022 round 3</t>
         </is>
       </c>
     </row>
@@ -528,15 +476,11 @@
           <t>09/24/20</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -545,17 +489,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2022 round 3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>DeSean Jackson</t>
         </is>
       </c>
     </row>
@@ -568,15 +502,11 @@
           <t>09/26/20</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -585,17 +515,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Courtland Sutton</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Dalton Schultz, 2021 round 3, bbid 244</t>
         </is>
       </c>
     </row>
@@ -608,15 +528,11 @@
           <t>09/26/20</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +541,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TE, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Dalton Schultz, 2021 round 3, bbid 244</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TE, Pick, Pick</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
     </row>
@@ -648,15 +554,11 @@
           <t>09/27/20</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -665,17 +567,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Marlon Mack</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2023 round 1</t>
         </is>
       </c>
     </row>
@@ -688,15 +580,11 @@
           <t>09/27/20</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -705,17 +593,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2023 round 1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Marlon Mack</t>
         </is>
       </c>
     </row>
@@ -728,15 +606,11 @@
           <t>09/30/20</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -745,17 +619,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>James Robinson</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Antonio Gibson, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -768,15 +632,11 @@
           <t>09/30/20</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -785,17 +645,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Antonio Gibson, 2021 round 2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>James Robinson</t>
         </is>
       </c>
     </row>
@@ -808,15 +658,11 @@
           <t>09/30/20</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -825,17 +671,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Devin Singletary</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Michael Gallup</t>
         </is>
       </c>
     </row>
@@ -848,15 +684,11 @@
           <t>09/30/20</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -865,17 +697,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Michael Gallup</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Devin Singletary</t>
         </is>
       </c>
     </row>
@@ -888,15 +710,11 @@
           <t>10/04/20</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -905,17 +723,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Russell Gage, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Mike Davis</t>
         </is>
       </c>
     </row>
@@ -928,15 +736,11 @@
           <t>10/04/20</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -945,17 +749,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Mike Davis</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Russell Gage, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -968,15 +762,11 @@
           <t>10/06/20</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -985,17 +775,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Eric Ebron</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Mark Ingram</t>
         </is>
       </c>
     </row>
@@ -1008,15 +788,11 @@
           <t>10/06/20</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1025,17 +801,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Mark Ingram</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Eric Ebron</t>
         </is>
       </c>
     </row>
@@ -1048,15 +814,11 @@
           <t>10/06/20</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1065,17 +827,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WR, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Keelan Cole, James Conner, 2022 round 3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>WR, RB, Pick</t>
+          <t>DJ Moore</t>
         </is>
       </c>
     </row>
@@ -1088,15 +840,11 @@
           <t>10/06/20</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,17 +853,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DJ Moore</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Keelan Cole, James Conner, 2022 round 3</t>
         </is>
       </c>
     </row>
@@ -1128,15 +866,11 @@
           <t>10/08/20</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1145,17 +879,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Mike Davis, 2021 round 3</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>2021 round 2</t>
         </is>
       </c>
     </row>
@@ -1168,15 +892,11 @@
           <t>10/08/20</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1185,17 +905,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2021 round 2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Mike Davis, 2021 round 3</t>
         </is>
       </c>
     </row>
@@ -1208,15 +918,11 @@
           <t>10/09/20</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1225,17 +931,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RB, WR, Pick</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Darrynton Evans, A.J. Brown, 2022 round 3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>RB, WR, Pick</t>
+          <t>Bryan Edwards, Van Jefferson, 2021 round 1</t>
         </is>
       </c>
     </row>
@@ -1248,15 +944,11 @@
           <t>10/09/20</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1265,17 +957,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WR, WR, Pick</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Bryan Edwards, Van Jefferson, 2021 round 1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>WR, WR, Pick</t>
+          <t>Darrynton Evans, A.J. Brown, 2022 round 3</t>
         </is>
       </c>
     </row>
@@ -1288,15 +970,11 @@
           <t>10/11/20</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1305,17 +983,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RB, RB</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Joshua Kelley, Damien Harris</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>RB, RB</t>
+          <t>Chase Edmonds, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -1328,15 +996,11 @@
           <t>10/11/20</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1345,17 +1009,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Chase Edmonds, 2021 round 2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>Joshua Kelley, Damien Harris</t>
         </is>
       </c>
     </row>
@@ -1368,15 +1022,11 @@
           <t>10/18/20</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1385,17 +1035,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>David Montgomery</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2021 round 1</t>
         </is>
       </c>
     </row>
@@ -1408,15 +1048,11 @@
           <t>10/18/20</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1425,17 +1061,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2021 round 1</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>David Montgomery</t>
         </is>
       </c>
     </row>
@@ -1448,15 +1074,11 @@
           <t>10/21/20</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1465,17 +1087,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Drew Sample</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Darrel Williams</t>
         </is>
       </c>
     </row>
@@ -1488,15 +1100,11 @@
           <t>10/21/20</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1505,17 +1113,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Darrel Williams</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Drew Sample</t>
         </is>
       </c>
     </row>
@@ -1528,15 +1126,11 @@
           <t>11/01/20</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1545,17 +1139,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2021 round 1</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
     </row>
@@ -1568,15 +1152,11 @@
           <t>11/01/20</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1585,17 +1165,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Dak Prescott</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>2021 round 1</t>
         </is>
       </c>
     </row>
@@ -1608,15 +1178,11 @@
           <t>11/12/20</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1625,17 +1191,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RB, RB</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Miles Sanders, Boston Scott</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>RB, RB</t>
+          <t>Jonathan Taylor, 2021 round 1, 2021 round 1, 2022 round 2</t>
         </is>
       </c>
     </row>
@@ -1648,15 +1204,11 @@
           <t>11/12/20</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1665,17 +1217,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Jonathan Taylor, 2021 round 1, 2021 round 1, 2022 round 2</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>RB, Pick, Pick, Pick</t>
+          <t>Miles Sanders, Boston Scott</t>
         </is>
       </c>
     </row>
@@ -1688,15 +1230,11 @@
           <t>11/14/20</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1705,17 +1243,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2021 round 1, 2023 round 1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>Tee Higgins, 2022 round 2</t>
         </is>
       </c>
     </row>
@@ -1728,15 +1256,11 @@
           <t>11/14/20</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1745,17 +1269,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Tee Higgins, 2022 round 2</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>2021 round 1, 2023 round 1</t>
         </is>
       </c>
     </row>
@@ -1768,15 +1282,11 @@
           <t>11/16/20</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1785,17 +1295,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Brandon Aiyuk, 2021 round 1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
     </row>
@@ -1808,15 +1308,11 @@
           <t>11/16/20</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1825,17 +1321,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Kareem Hunt</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Brandon Aiyuk, 2021 round 1</t>
         </is>
       </c>
     </row>
@@ -1848,15 +1334,11 @@
           <t>02/08/21</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1865,17 +1347,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>QB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Matthew Stafford, 2021 round 4, 2022 round 2</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>QB, Pick, Pick</t>
+          <t>2021 round 3</t>
         </is>
       </c>
     </row>
@@ -1888,15 +1360,11 @@
           <t>02/08/21</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1905,17 +1373,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2021 round 3</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Matthew Stafford, 2021 round 4, 2022 round 2</t>
         </is>
       </c>
     </row>
@@ -1928,15 +1386,11 @@
           <t>03/22/21</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1945,17 +1399,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2021 round 3</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Tony Pollard</t>
         </is>
       </c>
     </row>
@@ -1968,15 +1412,11 @@
           <t>03/22/21</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1985,17 +1425,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Tony Pollard</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2021 round 3</t>
         </is>
       </c>
     </row>
@@ -2008,15 +1438,11 @@
           <t>03/23/21</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2025,17 +1451,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Darrynton Evans, 2022 round 4</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>2022 round 3</t>
         </is>
       </c>
     </row>
@@ -2048,15 +1464,11 @@
           <t>03/23/21</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2065,17 +1477,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2022 round 3</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Darrynton Evans, 2022 round 4</t>
         </is>
       </c>
     </row>
@@ -2088,15 +1490,11 @@
           <t>04/01/21</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2105,17 +1503,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WR, WR, WR, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Tyler Johnson, Bryan Edwards, DJ Moore, 2022 round 2, 2022 round 3, 2021 round 1</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>WR, WR, WR, Pick, Pick, Pick</t>
+          <t>Justin Jefferson, Marquise Brown, 2021 round 2, 2021 round 2, 2022 round 1, 2022 round 4, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -2128,15 +1516,11 @@
           <t>04/01/21</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2145,17 +1529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>WR, WR, Pick, Pick, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Justin Jefferson, Marquise Brown, 2021 round 2, 2021 round 2, 2022 round 1, 2022 round 4, 2021 round 2</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>WR, WR, Pick, Pick, Pick, Pick, Pick</t>
+          <t>Tyler Johnson, Bryan Edwards, DJ Moore, 2022 round 2, 2022 round 3, 2021 round 1</t>
         </is>
       </c>
     </row>
@@ -2168,15 +1542,11 @@
           <t>04/03/21</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2185,17 +1555,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TE, RB, WR, Pick, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Dallas Goedert, Tarik Cohen, Marvin Jones, 2021 round 5, 2021 round 2, 2021 round 2, 2021 round 2</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>TE, RB, WR, Pick, Pick, Pick, Pick</t>
+          <t>Courtland Sutton, 2021 round 1</t>
         </is>
       </c>
     </row>
@@ -2208,15 +1568,11 @@
           <t>04/03/21</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2225,17 +1581,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Courtland Sutton, 2021 round 1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Dallas Goedert, Tarik Cohen, Marvin Jones, 2021 round 5, 2021 round 2, 2021 round 2, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -2248,10 +1594,8 @@
           <t>04/10/21</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2260,7 +1604,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WR, RB, WR</t>
+          <t>2021 round 1, 2021 round 2</t>
         </is>
       </c>
     </row>
@@ -2273,10 +1617,8 @@
           <t>04/10/21</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C49">
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2285,7 +1627,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick</t>
+          <t>Julio Jones, Van Jefferson, Kerryon Johnson</t>
         </is>
       </c>
     </row>
@@ -2298,10 +1640,8 @@
           <t>04/10/21</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C50">
+        <v>11</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2310,7 +1650,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>WR, Pick, Pick</t>
+          <t>Damien Harris, Courtland Sutton, 2021 round 2, 2022 round 4</t>
         </is>
       </c>
     </row>
@@ -2323,15 +1663,11 @@
           <t>08/01/21</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2340,17 +1676,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>CeeDee Lamb</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Clyde Edwards-Helaire, Michael Gallup</t>
         </is>
       </c>
     </row>
@@ -2363,15 +1689,11 @@
           <t>08/01/21</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2380,17 +1702,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>RB, WR</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Clyde Edwards-Helaire, Michael Gallup</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>RB, WR</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
     </row>
@@ -2403,15 +1715,11 @@
           <t>08/05/21</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2420,17 +1728,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>RB, QB, QB, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Mark Ingram, Kyler Murray, Baker Mayfield, 2021 round 1, 2023 round 4, 2022 round 4</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>RB, QB, QB, Pick, Pick, Pick</t>
+          <t>Patrick Mahomes, 2021 round 2, 2021 round 2, 2022 round 5, 2023 round 5</t>
         </is>
       </c>
     </row>
@@ -2443,15 +1741,11 @@
           <t>08/05/21</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2460,17 +1754,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>QB, Pick, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Patrick Mahomes, 2021 round 2, 2021 round 2, 2022 round 5, 2023 round 5</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>QB, Pick, Pick, Pick, Pick</t>
+          <t>Mark Ingram, Kyler Murray, Baker Mayfield, 2021 round 1, 2023 round 4, 2022 round 4</t>
         </is>
       </c>
     </row>
@@ -2483,15 +1767,11 @@
           <t>08/05/21</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2500,17 +1780,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2021 round 2</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Tyler Higbee</t>
         </is>
       </c>
     </row>
@@ -2523,15 +1793,11 @@
           <t>08/05/21</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2540,17 +1806,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Tyler Higbee</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>2021 round 2</t>
         </is>
       </c>
     </row>
@@ -2563,15 +1819,11 @@
           <t>09/09/21</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2580,17 +1832,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2024 round 5</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Noah Gray, 2024 round 5</t>
         </is>
       </c>
     </row>
@@ -2603,15 +1845,11 @@
           <t>09/09/21</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2620,17 +1858,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TE, Pick</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Noah Gray, 2024 round 5</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>TE, Pick</t>
+          <t>2024 round 5</t>
         </is>
       </c>
     </row>
@@ -2643,15 +1871,11 @@
           <t>09/09/21</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2660,17 +1884,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Logan Thomas</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Tom Brady</t>
         </is>
       </c>
     </row>
@@ -2683,15 +1897,11 @@
           <t>09/09/21</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,17 +1910,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Tom Brady</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Logan Thomas</t>
         </is>
       </c>
     </row>
@@ -2723,15 +1923,11 @@
           <t>09/10/21</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2740,17 +1936,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WR, WR, RB, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Mecole Hardman, Marquise Brown, Kareem Hunt, Devontae Booker, 2024 round 4</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>WR, WR, RB, RB, Pick</t>
+          <t>Kenneth Gainwell, Tua Tagovailoa, Tyler Boyd</t>
         </is>
       </c>
     </row>
@@ -2763,15 +1949,11 @@
           <t>09/10/21</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2780,17 +1962,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RB, QB, WR</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Kenneth Gainwell, Tua Tagovailoa, Tyler Boyd</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>RB, QB, WR</t>
+          <t>Mecole Hardman, Marquise Brown, Kareem Hunt, Devontae Booker, 2024 round 4</t>
         </is>
       </c>
     </row>
@@ -2803,15 +1975,11 @@
           <t>10/06/21</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2820,17 +1988,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RB, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Kenneth Gainwell, Tony Pollard, 2022 round 2</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>RB, RB, Pick</t>
+          <t>2022 round 1</t>
         </is>
       </c>
     </row>
@@ -2843,15 +2001,11 @@
           <t>10/06/21</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2860,17 +2014,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2022 round 1</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Kenneth Gainwell, Tony Pollard, 2022 round 2</t>
         </is>
       </c>
     </row>
@@ -2883,15 +2027,11 @@
           <t>10/06/21</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2900,17 +2040,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2024 round 5</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Darrel Williams, 2024 round 5</t>
         </is>
       </c>
     </row>
@@ -2923,15 +2053,11 @@
           <t>10/06/21</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2940,17 +2066,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Darrel Williams, 2024 round 5</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>2024 round 5</t>
         </is>
       </c>
     </row>
@@ -2963,15 +2079,11 @@
           <t>10/26/21</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2980,17 +2092,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Travis Etienne</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2022 round 1, 2022 round 2, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -3003,15 +2105,11 @@
           <t>10/26/21</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3020,17 +2118,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2022 round 1, 2022 round 2, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Pick, Pick, Pick</t>
+          <t>Travis Etienne</t>
         </is>
       </c>
     </row>
@@ -3043,15 +2131,11 @@
           <t>11/02/21</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3060,17 +2144,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Darrel Williams</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2022 round 2</t>
         </is>
       </c>
     </row>
@@ -3083,15 +2157,11 @@
           <t>11/02/21</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3100,17 +2170,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2022 round 2</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Darrel Williams</t>
         </is>
       </c>
     </row>
@@ -3123,15 +2183,11 @@
           <t>11/30/21</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3140,17 +2196,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Parris Campbell, 2022 round 1</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Justin Fields</t>
         </is>
       </c>
     </row>
@@ -3163,15 +2209,11 @@
           <t>11/30/21</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3180,17 +2222,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Justin Fields</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Parris Campbell, 2022 round 1</t>
         </is>
       </c>
     </row>
@@ -3203,15 +2235,11 @@
           <t>12/05/21</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3220,17 +2248,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DEF, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>MIN, 2022 round 5, 2022 round 5, 2023 round 5</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>DEF, Pick, Pick, Pick</t>
+          <t>KC</t>
         </is>
       </c>
     </row>
@@ -3243,15 +2261,11 @@
           <t>12/05/21</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3260,17 +2274,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>KC</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>DEF</t>
+          <t>MIN, 2022 round 5, 2022 round 5, 2023 round 5</t>
         </is>
       </c>
     </row>
@@ -3283,15 +2287,11 @@
           <t>01/14/22</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3300,17 +2300,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>WR, WR, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Tyler Johnson, Michael Gallup, James White, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>WR, WR, RB, Pick</t>
+          <t>Rashod Bateman</t>
         </is>
       </c>
     </row>
@@ -3323,15 +2313,11 @@
           <t>01/14/22</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3340,17 +2326,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Rashod Bateman</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Tyler Johnson, Michael Gallup, James White, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -3363,15 +2339,11 @@
           <t>04/16/22</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3380,17 +2352,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Tyreek Hill</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Antonio Gibson</t>
         </is>
       </c>
     </row>
@@ -3403,15 +2365,11 @@
           <t>04/16/22</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3420,17 +2378,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Antonio Gibson</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
     </row>
@@ -3443,15 +2391,11 @@
           <t>08/24/22</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3460,17 +2404,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Tyler Boyd</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>2023 round 2</t>
         </is>
       </c>
     </row>
@@ -3483,15 +2417,11 @@
           <t>08/24/22</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>nhosta</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>nhosta</t>
-        </is>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3500,17 +2430,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Tyler Boyd</t>
         </is>
       </c>
     </row>
@@ -3523,15 +2443,11 @@
           <t>09/02/22</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3540,17 +2456,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2022 round 2</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>2022 round 2, 2022 round 4, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -3563,15 +2469,11 @@
           <t>09/02/22</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3580,17 +2482,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2022 round 2, 2022 round 4, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Pick, Pick, Pick</t>
+          <t>2022 round 2</t>
         </is>
       </c>
     </row>
@@ -3603,15 +2495,11 @@
           <t>09/03/22</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3620,17 +2508,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Terrace Marshall, 2023 round 5</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>2023 round 4, 2023 round 4</t>
         </is>
       </c>
     </row>
@@ -3643,15 +2521,11 @@
           <t>09/03/22</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3660,17 +2534,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2023 round 4, 2023 round 4</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>Terrace Marshall, 2023 round 5</t>
         </is>
       </c>
     </row>
@@ -3683,15 +2547,11 @@
           <t>09/22/22</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3700,17 +2560,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Austin Ekeler</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Elijah Moore, Tony Pollard, 2023 round 1</t>
         </is>
       </c>
     </row>
@@ -3723,15 +2573,11 @@
           <t>09/22/22</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3740,17 +2586,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WR, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Elijah Moore, Tony Pollard, 2023 round 1</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>WR, RB, Pick</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
     </row>
@@ -3763,15 +2599,11 @@
           <t>09/23/22</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3780,17 +2612,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>J.K. Dobbins, 2023 round 4, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>RB, Pick, Pick</t>
+          <t>Treylon Burks, 2023 round 2</t>
         </is>
       </c>
     </row>
@@ -3803,15 +2625,11 @@
           <t>09/23/22</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3820,17 +2638,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Treylon Burks, 2023 round 2</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>J.K. Dobbins, 2023 round 4, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -3843,15 +2651,11 @@
           <t>09/30/22</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3860,17 +2664,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Rex Burkhead</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2023 round 3</t>
         </is>
       </c>
     </row>
@@ -3883,15 +2677,11 @@
           <t>09/30/22</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3900,17 +2690,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2023 round 3</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Rex Burkhead</t>
         </is>
       </c>
     </row>
@@ -3923,15 +2703,11 @@
           <t>09/30/22</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3940,17 +2716,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>RB, TE, Pick</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Clyde Edwards-Helaire, Tyler Higbee, 2023 round 2</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>RB, TE, Pick</t>
+          <t>Dawson Knox, 2023 round 1</t>
         </is>
       </c>
     </row>
@@ -3963,15 +2729,11 @@
           <t>09/30/22</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3980,17 +2742,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TE, Pick</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Dawson Knox, 2023 round 1</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>TE, Pick</t>
+          <t>Clyde Edwards-Helaire, Tyler Higbee, 2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4003,15 +2755,11 @@
           <t>10/16/22</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4020,17 +2768,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Deshaun Watson</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Marquez Valdes-Scantling, 2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4043,15 +2781,11 @@
           <t>10/16/22</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4060,17 +2794,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Marquez Valdes-Scantling, 2023 round 2</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Deshaun Watson</t>
         </is>
       </c>
     </row>
@@ -4083,15 +2807,11 @@
           <t>10/24/22</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4100,17 +2820,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Tevin Coleman, 2023 round 1, 2023 round 2</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>RB, Pick, Pick</t>
+          <t>Isiah Pacheco</t>
         </is>
       </c>
     </row>
@@ -4123,15 +2833,11 @@
           <t>10/24/22</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4140,17 +2846,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Isiah Pacheco</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Tevin Coleman, 2023 round 1, 2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4163,15 +2859,11 @@
           <t>10/26/22</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4180,17 +2872,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Eno Benjamin, 2023 round 2, 2023 round 4</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>RB, Pick, Pick</t>
+          <t>DeAndre Hopkins</t>
         </is>
       </c>
     </row>
@@ -4203,15 +2885,11 @@
           <t>10/26/22</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4220,17 +2898,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>DeAndre Hopkins</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Eno Benjamin, 2023 round 2, 2023 round 4</t>
         </is>
       </c>
     </row>
@@ -4243,15 +2911,11 @@
           <t>11/02/22</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4260,17 +2924,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Darnell Mooney, 2025 round 5</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>2025 round 3</t>
         </is>
       </c>
     </row>
@@ -4283,15 +2937,11 @@
           <t>11/02/22</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4300,17 +2950,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2025 round 3</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Darnell Mooney, 2025 round 5</t>
         </is>
       </c>
     </row>
@@ -4323,15 +2963,11 @@
           <t>11/23/22</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4340,17 +2976,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>WR, RB, Pick</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Treylon Burks, Antonio Gibson, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>WR, RB, Pick</t>
+          <t>Rachaad White, 2023 round 3, 2024 round 1</t>
         </is>
       </c>
     </row>
@@ -4363,15 +2989,11 @@
           <t>11/23/22</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4380,17 +3002,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>RB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Rachaad White, 2023 round 3, 2024 round 1</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>RB, Pick, Pick</t>
+          <t>Treylon Burks, Antonio Gibson, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -4403,15 +3015,11 @@
           <t>11/23/22</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4420,17 +3028,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Noah Fant</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4443,15 +3041,11 @@
           <t>11/23/22</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4460,17 +3054,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Noah Fant</t>
         </is>
       </c>
     </row>
@@ -4483,15 +3067,11 @@
           <t>12/06/22</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4500,17 +3080,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Aaron Rodgers</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Russell Wilson</t>
         </is>
       </c>
     </row>
@@ -4523,15 +3093,11 @@
           <t>12/06/22</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4540,17 +3106,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Russell Wilson</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Aaron Rodgers</t>
         </is>
       </c>
     </row>
@@ -4563,15 +3119,11 @@
           <t>12/18/22</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4580,17 +3132,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2023 round 3</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
@@ -4603,15 +3145,11 @@
           <t>12/18/22</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4620,17 +3158,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>DEF</t>
+          <t>2023 round 3</t>
         </is>
       </c>
     </row>
@@ -4643,15 +3171,11 @@
           <t>01/17/23</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4660,17 +3184,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>DEF</t>
+          <t>2023 round 4</t>
         </is>
       </c>
     </row>
@@ -4683,15 +3197,11 @@
           <t>01/17/23</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4700,17 +3210,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2023 round 4</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>DEN</t>
         </is>
       </c>
     </row>
@@ -4723,15 +3223,11 @@
           <t>04/02/23</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4740,17 +3236,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Kadarius Toney</t>
         </is>
       </c>
     </row>
@@ -4763,15 +3249,11 @@
           <t>04/02/23</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>ttsao</t>
-        </is>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4780,17 +3262,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Kadarius Toney</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4803,15 +3275,11 @@
           <t>05/15/23</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4820,17 +3288,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Jonathan Taylor</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2023 round 1, 2024 round 2, 2023 round 3</t>
         </is>
       </c>
     </row>
@@ -4843,15 +3301,11 @@
           <t>05/15/23</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4860,17 +3314,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2023 round 1, 2024 round 2, 2023 round 3</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Pick, Pick, Pick</t>
+          <t>Jonathan Taylor</t>
         </is>
       </c>
     </row>
@@ -4883,15 +3327,11 @@
           <t>08/02/23</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4900,17 +3340,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>RB, WR, WR, Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Brian Robinson, Jameson Williams, Rashod Bateman, 2024 round 1, 2023 round 3, 2023 round 4</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>RB, WR, WR, Pick, Pick, Pick</t>
+          <t>Travis Etienne, 2023 round 2</t>
         </is>
       </c>
     </row>
@@ -4923,15 +3353,11 @@
           <t>08/02/23</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4940,17 +3366,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Travis Etienne, 2023 round 2</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>Brian Robinson, Jameson Williams, Rashod Bateman, 2024 round 1, 2023 round 3, 2023 round 4</t>
         </is>
       </c>
     </row>
@@ -4963,15 +3379,11 @@
           <t>08/04/23</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>10</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4980,17 +3392,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>DeAndre Hopkins</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>2023 round 2</t>
         </is>
       </c>
     </row>
@@ -5003,15 +3405,11 @@
           <t>08/04/23</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5020,17 +3418,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>DeAndre Hopkins</t>
         </is>
       </c>
     </row>
@@ -5043,15 +3431,11 @@
           <t>08/27/23</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5060,17 +3444,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2023 round 2, 2025 round 3</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>2023 round 3, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -5083,15 +3457,11 @@
           <t>08/27/23</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5100,17 +3470,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2023 round 3, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>2023 round 2, 2025 round 3</t>
         </is>
       </c>
     </row>
@@ -5123,15 +3483,11 @@
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>12</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5140,17 +3496,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Pick, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2023 round 1, 2023 round 2, 2024 round 4</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Pick, Pick, Pick</t>
+          <t>2023 round 1, 2023 round 4</t>
         </is>
       </c>
     </row>
@@ -5163,15 +3509,11 @@
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5180,17 +3522,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2023 round 1, 2023 round 4</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>2023 round 1, 2023 round 2, 2024 round 4</t>
         </is>
       </c>
     </row>
@@ -5203,34 +3535,15 @@
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Pick</t>
         </is>
       </c>
     </row>
@@ -5243,34 +3556,15 @@
           <t>09/02/23</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2023 round 2</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Pick</t>
         </is>
       </c>
     </row>
@@ -5283,15 +3577,11 @@
           <t>09/05/23</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5300,17 +3590,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>QB, RB</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Kenny Pickett, Alvin Kamara</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>QB, RB</t>
+          <t>Christian Kirk, Jared Goff</t>
         </is>
       </c>
     </row>
@@ -5323,15 +3603,11 @@
           <t>09/05/23</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5340,17 +3616,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>WR, QB</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Christian Kirk, Jared Goff</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>WR, QB</t>
+          <t>Kenny Pickett, Alvin Kamara</t>
         </is>
       </c>
     </row>
@@ -5363,15 +3629,11 @@
           <t>10/01/23</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>9</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5380,17 +3642,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Dameon Pierce, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>Lamar Jackson, Ezekiel Elliott</t>
         </is>
       </c>
     </row>
@@ -5403,15 +3655,11 @@
           <t>10/01/23</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5420,17 +3668,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>QB, RB</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Lamar Jackson, Ezekiel Elliott</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>QB, RB</t>
+          <t>Dameon Pierce, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -5443,15 +3681,11 @@
           <t>10/01/23</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5460,17 +3694,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Dak Prescott</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>2024 round 2</t>
         </is>
       </c>
     </row>
@@ -5483,15 +3707,11 @@
           <t>10/01/23</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>elrandal</t>
-        </is>
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5500,17 +3720,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2024 round 2</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
     </row>
@@ -5523,15 +3733,11 @@
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5540,17 +3746,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>WR, TE</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Kadarius Toney, Cole Kmet</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>WR, TE</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
     </row>
@@ -5563,15 +3759,11 @@
           <t>10/02/23</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>cpmadden1</t>
-        </is>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5580,17 +3772,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Dallas Goedert</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Kadarius Toney, Cole Kmet</t>
         </is>
       </c>
     </row>
@@ -5603,15 +3785,11 @@
           <t>10/07/23</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5620,17 +3798,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Dawson Knox</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Odell Beckham</t>
         </is>
       </c>
     </row>
@@ -5643,15 +3811,11 @@
           <t>10/07/23</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5660,17 +3824,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Odell Beckham</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Dawson Knox</t>
         </is>
       </c>
     </row>
@@ -5683,15 +3837,11 @@
           <t>10/08/23</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5700,17 +3850,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>WR, RB, Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>George Pickens, Michael Carter, 2024 round 2, 2025 round 3</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>WR, RB, Pick, Pick</t>
+          <t>Elijah Mitchell, Derrick Henry</t>
         </is>
       </c>
     </row>
@@ -5723,15 +3863,11 @@
           <t>10/08/23</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5740,17 +3876,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>RB, RB</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Elijah Mitchell, Derrick Henry</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>RB, RB</t>
+          <t>George Pickens, Michael Carter, 2024 round 2, 2025 round 3</t>
         </is>
       </c>
     </row>
@@ -5763,15 +3889,11 @@
           <t>10/17/23</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5780,17 +3902,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Dalton Schultz</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>Joshua Palmer</t>
         </is>
       </c>
     </row>
@@ -5803,15 +3915,11 @@
           <t>10/17/23</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>zacgeoffray</t>
-        </is>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5820,17 +3928,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Joshua Palmer</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Dalton Schultz</t>
         </is>
       </c>
     </row>
@@ -5843,15 +3941,11 @@
           <t>10/18/23</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5860,17 +3954,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>C.J. Stroud</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>QB</t>
+          <t>Evan Engram</t>
         </is>
       </c>
     </row>
@@ -5883,15 +3967,11 @@
           <t>10/18/23</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5900,17 +3980,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Evan Engram</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>TE</t>
+          <t>C.J. Stroud</t>
         </is>
       </c>
     </row>
@@ -5923,15 +3993,11 @@
           <t>10/22/23</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5940,17 +4006,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Chuba Hubbard</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>Treylon Burks</t>
         </is>
       </c>
     </row>
@@ -5963,15 +4019,11 @@
           <t>10/22/23</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5980,17 +4032,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Treylon Burks</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Chuba Hubbard</t>
         </is>
       </c>
     </row>
@@ -6003,15 +4045,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6020,17 +4058,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2024 round 2</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Mike Evans</t>
         </is>
       </c>
     </row>
@@ -6043,15 +4071,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Alanasty</t>
-        </is>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6060,17 +4084,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Mike Evans</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>2024 round 2</t>
         </is>
       </c>
     </row>
@@ -6083,15 +4097,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>bellist</t>
-        </is>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>9</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6100,17 +4110,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Rachaad White, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>2024 round 4, 2025 round 1</t>
         </is>
       </c>
     </row>
@@ -6123,15 +4123,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6140,17 +4136,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Pick, Pick</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>2024 round 4, 2025 round 1</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Pick, Pick</t>
+          <t>Rachaad White, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -6163,15 +4149,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>pdpablo</t>
-        </is>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6180,17 +4162,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Gus Edwards, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>Christian Watson</t>
         </is>
       </c>
     </row>
@@ -6203,15 +4175,11 @@
           <t>10/31/23</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6220,17 +4188,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Christian Watson</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Gus Edwards, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -6243,15 +4201,11 @@
           <t>11/11/23</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>asmontalvo</t>
-        </is>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6260,17 +4214,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>CeeDee Lamb</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>WR</t>
+          <t>Nico Collins, Marquise Brown</t>
         </is>
       </c>
     </row>
@@ -6283,15 +4227,11 @@
           <t>11/11/23</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>naaderbanki</t>
-        </is>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6300,17 +4240,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>WR, WR</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Nico Collins, Marquise Brown</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>WR, WR</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
     </row>
@@ -6323,15 +4253,11 @@
           <t>11/25/23</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>11</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6340,17 +4266,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>RB, Pick</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Antonio Gibson, 2024 round 2</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>RB, Pick</t>
+          <t>Courtland Sutton, 2024 round 4</t>
         </is>
       </c>
     </row>
@@ -6363,15 +4279,11 @@
           <t>11/25/23</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6380,17 +4292,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>WR, Pick</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Courtland Sutton, 2024 round 4</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>WR, Pick</t>
+          <t>Antonio Gibson, 2024 round 2</t>
         </is>
       </c>
     </row>
@@ -6403,15 +4305,11 @@
           <t>12/06/23</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>JohnWickMD</t>
-        </is>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6420,17 +4318,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Pick</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2025 round 1</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Pick</t>
+          <t>Zack Moss</t>
         </is>
       </c>
     </row>
@@ -6443,15 +4331,11 @@
           <t>12/06/23</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>slobonmynoblin</t>
-        </is>
+      <c r="C154">
+        <v>11</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6460,17 +4344,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Zack Moss</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>RB</t>
+          <t>2025 round 1</t>
         </is>
       </c>
     </row>
